--- a/sentiments.xlsx
+++ b/sentiments.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loowenwen/Desktop/Visual Code Studio/jtc-market-sentiments/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B568F7F2-4748-BE41-9A9D-1E35855122F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2020 - 2024" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -37,7 +31,7 @@
     <t>Text</t>
   </si>
   <si>
-    <t>Rating</t>
+    <t>Rating 1</t>
   </si>
   <si>
     <t>https://www.straitstimes.com/business/singapore-shophouse-sales-surge-prices-climb-as-wealthy-investors-return-knight-frank</t>
@@ -2674,8 +2668,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2684,8 +2679,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2698,7 +2699,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2708,40 +2709,62 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2752,10 +2775,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2793,69 +2816,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2879,54 +2904,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2936,7 +2960,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2945,7 +2969,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2954,7 +2978,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2962,10 +2986,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -2994,7 +3018,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -3007,13 +3031,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -3031,14 +3054,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:F308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3054,6151 +3088,6151 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="4">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="4">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="4">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="4">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="4">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="4">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="A82" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="A86" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="A88" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="A90" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="A92" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="A93" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+      <c r="A94" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="A95" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+      <c r="A96" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="A97" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+      <c r="A98" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="A99" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+      <c r="A100" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+      <c r="A101" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+      <c r="A102" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="A103" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+      <c r="A104" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+      <c r="A105" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+      <c r="A106" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+      <c r="A107" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+      <c r="A108" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+      <c r="A109" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="4">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+      <c r="A110" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+      <c r="A111" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="4">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+      <c r="A112" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="4">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+      <c r="A113" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+      <c r="A114" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+      <c r="A115" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+      <c r="A116" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+      <c r="A117" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+      <c r="A118" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+      <c r="A119" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+      <c r="A120" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="4">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+      <c r="A121" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="4">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+      <c r="A122" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="4">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+      <c r="A123" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+      <c r="A124" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+      <c r="A125" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
+      <c r="A126" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
+      <c r="A127" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
+      <c r="A128" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
+      <c r="A129" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
+      <c r="A130" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+      <c r="A131" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+      <c r="A132" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+      <c r="A133" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
+      <c r="A134" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="4">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+      <c r="A135" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
+      <c r="A136" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
+      <c r="A137" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
+      <c r="A138" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
+      <c r="A139" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
+      <c r="A140" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
+      <c r="A141" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
+      <c r="A142" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
+      <c r="A143" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
+      <c r="A144" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
+      <c r="A145" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
+      <c r="A146" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
+      <c r="A147" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="4">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
+      <c r="A148" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="4">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
+      <c r="A149" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
+      <c r="A150" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="4">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
+      <c r="A151" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
+      <c r="A152" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="4">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
+      <c r="A153" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
+      <c r="A154" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
+      <c r="A155" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
+      <c r="A156" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
+      <c r="A157" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
+      <c r="A158" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
+      <c r="A159" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
+      <c r="A160" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
+      <c r="A161" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
+      <c r="A162" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
+      <c r="A163" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
+      <c r="A164" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
+      <c r="A165" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
+      <c r="A166" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
+      <c r="A167" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
+      <c r="A168" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
+      <c r="A169" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
+      <c r="A170" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
+      <c r="A171" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
+      <c r="A172" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
+      <c r="A173" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
+      <c r="A174" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
+      <c r="A175" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
+      <c r="A176" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
+      <c r="A177" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
+      <c r="A178" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
+      <c r="A179" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
+      <c r="A180" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
+      <c r="A181" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E181" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
+      <c r="A182" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
+      <c r="A183" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
+      <c r="A184" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
+      <c r="A185" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
+      <c r="A186" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
+      <c r="A187" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
+      <c r="A188" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
+      <c r="A189" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="4">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
+      <c r="A190" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
+      <c r="A191" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
+      <c r="A192" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
+      <c r="A193" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="4">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
+      <c r="A194" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
+      <c r="A195" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
+      <c r="A196" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="F196">
+      <c r="F196" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
+      <c r="A197" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="F197">
+      <c r="F197" s="4">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
+      <c r="A198" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="F198">
+      <c r="F198" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
+      <c r="A199" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="F199">
+      <c r="F199" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
+      <c r="A200" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="F200">
+      <c r="F200" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
+      <c r="A201" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="F201">
+      <c r="F201" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
+      <c r="A202" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
+      <c r="A203" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="F203">
+      <c r="F203" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
+      <c r="A204" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
+      <c r="A205" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
+      <c r="A206" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
+      <c r="A207" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="F207">
+      <c r="F207" s="4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
+      <c r="A208" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E208" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
+      <c r="A209" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
+      <c r="A210" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
+      <c r="A211" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
+      <c r="A212" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
+      <c r="A213" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="F213">
+      <c r="F213" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
+      <c r="A214" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
+      <c r="A215" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
+      <c r="A216" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
+      <c r="A217" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
+      <c r="A218" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
+      <c r="A219" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
+      <c r="A220" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="F220">
+      <c r="F220" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
+      <c r="A221" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="F221">
+      <c r="F221" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
+      <c r="A222" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E222" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="F222">
+      <c r="F222" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25">
+      <c r="A223" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
+      <c r="A224" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25">
+      <c r="A225" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
+      <c r="A226" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="F226">
+      <c r="F226" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
+      <c r="A227" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="F227">
+      <c r="F227" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
+      <c r="A228" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25">
+      <c r="A229" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="F229">
+      <c r="F229" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25">
+      <c r="A230" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E230" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="F230">
+      <c r="F230" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25">
+      <c r="A231" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="F231">
+      <c r="F231" s="4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25">
+      <c r="A232" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="F232">
+      <c r="F232" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25">
+      <c r="A233" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="F233">
+      <c r="F233" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25">
+      <c r="A234" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="F234">
+      <c r="F234" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25">
+      <c r="A235" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E235" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="F235">
+      <c r="F235" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25">
+      <c r="A236" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E236" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="F236">
+      <c r="F236" s="4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25">
+      <c r="A237" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E237" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="F237">
+      <c r="F237" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25">
+      <c r="A238" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="F238">
+      <c r="F238" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25">
+      <c r="A239" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="F239">
+      <c r="F239" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25">
+      <c r="A240" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="F240">
+      <c r="F240" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25">
+      <c r="A241" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E241" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="F241">
+      <c r="F241" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25">
+      <c r="A242" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E242" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="F242">
+      <c r="F242" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25">
+      <c r="A243" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E243" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="F243">
+      <c r="F243" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25">
+      <c r="A244" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E244" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F244">
+      <c r="F244" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25">
+      <c r="A245" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E245" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="F245">
+      <c r="F245" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25">
+      <c r="A246" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E246" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="F246">
+      <c r="F246" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25">
+      <c r="A247" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E247" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="F247">
+      <c r="F247" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25">
+      <c r="A248" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E248" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="F248">
+      <c r="F248" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25">
+      <c r="A249" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E249" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="F249">
+      <c r="F249" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25">
+      <c r="A250" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E250" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="F250">
+      <c r="F250" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25">
+      <c r="A251" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E251" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="F251">
+      <c r="F251" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25">
+      <c r="A252" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E252" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="F252">
+      <c r="F252" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25">
+      <c r="A253" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E253" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="F253">
+      <c r="F253" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25">
+      <c r="A254" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E254" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="F254">
+      <c r="F254" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25">
+      <c r="A255" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E255" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="F255">
+      <c r="F255" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25">
+      <c r="A256" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E256" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="F256">
+      <c r="F256" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25">
+      <c r="A257" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E257" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="F257">
+      <c r="F257" s="4">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25">
+      <c r="A258" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E258" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="F258">
+      <c r="F258" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25">
+      <c r="A259" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E259" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="F259">
+      <c r="F259" s="4">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25">
+      <c r="A260" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E260" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="F260">
+      <c r="F260" s="4">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25">
+      <c r="A261" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E261" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="F261">
+      <c r="F261" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25">
+      <c r="A262" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E262" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="F262">
+      <c r="F262" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25">
+      <c r="A263" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E263" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="F263">
+      <c r="F263" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25">
+      <c r="A264" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E264" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="F264">
+      <c r="F264" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25">
+      <c r="A265" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E265" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="F265">
+      <c r="F265" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25">
+      <c r="A266" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E266" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F266">
+      <c r="F266" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25">
+      <c r="A267" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E267" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F267">
+      <c r="F267" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25">
+      <c r="A268" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E268" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="F268">
+      <c r="F268" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25">
+      <c r="A269" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="E269" t="s">
+      <c r="E269" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="F269">
+      <c r="F269" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25">
+      <c r="A270" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="E270" t="s">
+      <c r="E270" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="F270">
+      <c r="F270" s="4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25">
+      <c r="A271" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="E271" t="s">
+      <c r="E271" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="F271">
+      <c r="F271" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25">
+      <c r="A272" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E272" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="F272">
+      <c r="F272" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25">
+      <c r="A273" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E273" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="F273">
+      <c r="F273" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25">
+      <c r="A274" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="E274" t="s">
+      <c r="E274" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="F274">
+      <c r="F274" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25">
+      <c r="A275" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="E275" t="s">
+      <c r="E275" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="F275">
+      <c r="F275" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25">
+      <c r="A276" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="E276" t="s">
+      <c r="E276" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="F276">
+      <c r="F276" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25">
+      <c r="A277" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="E277" t="s">
+      <c r="E277" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="F277">
+      <c r="F277" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25">
+      <c r="A278" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E278" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="F278">
+      <c r="F278" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25">
+      <c r="A279" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="E279" t="s">
+      <c r="E279" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="F279">
+      <c r="F279" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25">
+      <c r="A280" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="E280" t="s">
+      <c r="E280" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="F280">
+      <c r="F280" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25">
+      <c r="A281" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E281" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="F281">
+      <c r="F281" s="4">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25">
+      <c r="A282" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="E282" t="s">
+      <c r="E282" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="F282">
+      <c r="F282" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25">
+      <c r="A283" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="E283" t="s">
+      <c r="E283" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="F283">
+      <c r="F283" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25">
+      <c r="A284" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="E284" t="s">
+      <c r="E284" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="F284">
+      <c r="F284" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25">
+      <c r="A285" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="E285" t="s">
+      <c r="E285" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="F285">
+      <c r="F285" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25">
+      <c r="A286" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="E286" t="s">
+      <c r="E286" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F286">
+      <c r="F286" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25">
+      <c r="A287" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="E287" t="s">
+      <c r="E287" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="F287">
+      <c r="F287" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25">
+      <c r="A288" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C288" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="E288" t="s">
+      <c r="E288" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="F288">
+      <c r="F288" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25">
+      <c r="A289" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C289" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="E289" t="s">
+      <c r="E289" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F289">
+      <c r="F289" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25">
+      <c r="A290" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C290" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="E290" t="s">
+      <c r="E290" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F290">
+      <c r="F290" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25">
+      <c r="A291" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="E291" t="s">
+      <c r="E291" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F291">
+      <c r="F291" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25">
+      <c r="A292" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="E292" t="s">
+      <c r="E292" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="F292">
+      <c r="F292" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25">
+      <c r="A293" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C293" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="E293" t="s">
+      <c r="E293" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="F293">
+      <c r="F293" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25">
+      <c r="A294" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C294" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="E294" t="s">
+      <c r="E294" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="F294">
+      <c r="F294" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25">
+      <c r="A295" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C295" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="E295" t="s">
+      <c r="E295" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="F295">
+      <c r="F295" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25">
+      <c r="A296" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D296" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="E296" t="s">
+      <c r="E296" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="F296">
+      <c r="F296" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25">
+      <c r="A297" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="E297" t="s">
+      <c r="E297" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="F297">
+      <c r="F297" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25">
+      <c r="A298" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="E298" t="s">
+      <c r="E298" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="F298">
+      <c r="F298" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25">
+      <c r="A299" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="E299" t="s">
+      <c r="E299" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F299">
+      <c r="F299" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25">
+      <c r="A300" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="E300" t="s">
+      <c r="E300" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F300">
+      <c r="F300" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25">
+      <c r="A301" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C301" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="E301" t="s">
+      <c r="E301" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="F301">
+      <c r="F301" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="17.25">
+      <c r="A302" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C302" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="E302" t="s">
+      <c r="E302" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="F302">
+      <c r="F302" s="4">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="17.25">
+      <c r="A303" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C303" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="E303" t="s">
+      <c r="E303" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="F303">
+      <c r="F303" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="17.25">
+      <c r="A304" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="E304" t="s">
+      <c r="E304" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="F304">
+      <c r="F304" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="17.25">
+      <c r="A305" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C305" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="E305" t="s">
+      <c r="E305" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="F305">
+      <c r="F305" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="17.25">
+      <c r="A306" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C306" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="E306" t="s">
+      <c r="E306" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="F306">
+      <c r="F306" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="17.25">
+      <c r="A307" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="E307" t="s">
+      <c r="E307" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="F307">
+      <c r="F307" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="17.25">
+      <c r="A308" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C308" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="E308" t="s">
+      <c r="E308" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="F308">
+      <c r="F308" s="4">
         <v>-0.5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sentiments.xlsx
+++ b/sentiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,16 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>message_content_z</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>message_content_a</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>message_content</t>
         </is>
       </c>
@@ -469,9 +479,15 @@
       <c r="C2" t="n">
         <v>0.8</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.8</t>
+      <c r="D2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -489,9 +505,15 @@
       <c r="C3" t="n">
         <v>0.1</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="D3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -509,9 +531,15 @@
       <c r="C4" t="n">
         <v>0.2</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -529,9 +557,15 @@
       <c r="C5" t="n">
         <v>0.2</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.1</t>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -549,9 +583,15 @@
       <c r="C6" t="n">
         <v>-0.6</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-0.8</t>
+      <c r="D6" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -569,9 +609,15 @@
       <c r="C7" t="n">
         <v>0.2</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-0.5</t>
+      <c r="D7" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -589,9 +635,15 @@
       <c r="C8" t="n">
         <v>0.3</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="D8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -609,9 +661,15 @@
       <c r="C9" t="n">
         <v>0.2</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -629,9 +687,15 @@
       <c r="C10" t="n">
         <v>0.8</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.8</t>
+      <c r="D10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -649,9 +713,15 @@
       <c r="C11" t="n">
         <v>0.5</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="D11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -669,9 +739,15 @@
       <c r="C12" t="n">
         <v>0.8</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.8</t>
+      <c r="D12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -689,9 +765,15 @@
       <c r="C13" t="n">
         <v>0.5</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="D13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -709,9 +791,15 @@
       <c r="C14" t="n">
         <v>0.5</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="D14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -729,9 +817,15 @@
       <c r="C15" t="n">
         <v>0.2</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.1</t>
+      <c r="D15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -749,9 +843,15 @@
       <c r="C16" t="n">
         <v>0.1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>-0.3</t>
+      <c r="D16" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -769,9 +869,15 @@
       <c r="C17" t="n">
         <v>0.6</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="D17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -789,9 +895,15 @@
       <c r="C18" t="n">
         <v>0.6</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.7</t>
+      <c r="D18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -809,9 +921,15 @@
       <c r="C19" t="n">
         <v>0.2</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.1</t>
+      <c r="D19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -829,9 +947,15 @@
       <c r="C20" t="n">
         <v>0.7</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.6</t>
+      <c r="D20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -849,9 +973,15 @@
       <c r="C21" t="n">
         <v>0.2</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -869,9 +999,15 @@
       <c r="C22" t="n">
         <v>0.3</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -889,9 +1025,15 @@
       <c r="C23" t="n">
         <v>0.5</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.1</t>
+      <c r="D23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -909,9 +1051,15 @@
       <c r="C24" t="n">
         <v>0.7</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="D24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -929,9 +1077,15 @@
       <c r="C25" t="n">
         <v>0.2</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>-1</t>
+      <c r="D25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -949,9 +1103,15 @@
       <c r="C26" t="n">
         <v>0.2</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -969,9 +1129,15 @@
       <c r="C27" t="n">
         <v>0.2</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>-1</t>
+      <c r="D27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -989,9 +1155,15 @@
       <c r="C28" t="n">
         <v>0.6</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.7</t>
+      <c r="D28" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1009,9 +1181,15 @@
       <c r="C29" t="n">
         <v>0.5</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="D29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1029,9 +1207,15 @@
       <c r="C30" t="n">
         <v>0.5</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.7</t>
+      <c r="D30" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1049,9 +1233,15 @@
       <c r="C31" t="n">
         <v>0.6</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="D31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1069,9 +1259,15 @@
       <c r="C32" t="n">
         <v>0.5</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="D32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1089,9 +1285,15 @@
       <c r="C33" t="n">
         <v>0.3</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.1</t>
+      <c r="D33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1109,9 +1311,15 @@
       <c r="C34" t="n">
         <v>0.5</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="D34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1129,9 +1337,15 @@
       <c r="C35" t="n">
         <v>0.6</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.6</t>
+      <c r="D35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1149,9 +1363,15 @@
       <c r="C36" t="n">
         <v>-1</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>-0.5</t>
+      <c r="D36" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1169,9 +1389,15 @@
       <c r="C37" t="n">
         <v>0.2</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="D37" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1189,9 +1415,15 @@
       <c r="C38" t="n">
         <v>0.2</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="D38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1209,9 +1441,15 @@
       <c r="C39" t="n">
         <v>0.2</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="D39" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1229,9 +1467,15 @@
       <c r="C40" t="n">
         <v>0</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>-1</t>
+      <c r="D40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1249,9 +1493,15 @@
       <c r="C41" t="n">
         <v>-1</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>-1</t>
+      <c r="D41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1269,9 +1519,15 @@
       <c r="C42" t="n">
         <v>0.5</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="D42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1289,9 +1545,15 @@
       <c r="C43" t="n">
         <v>0</v>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1309,9 +1571,15 @@
       <c r="C44" t="n">
         <v>0.5</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>-1</t>
+      <c r="D44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1329,9 +1597,15 @@
       <c r="C45" t="n">
         <v>0.2</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1349,9 +1623,15 @@
       <c r="C46" t="n">
         <v>0.5</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="D46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1369,9 +1649,15 @@
       <c r="C47" t="n">
         <v>0.2</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>-0.5</t>
+      <c r="D47" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1389,9 +1675,15 @@
       <c r="C48" t="n">
         <v>0.2</v>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="D48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1409,9 +1701,15 @@
       <c r="C49" t="n">
         <v>0.5</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="D49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1429,9 +1727,15 @@
       <c r="C50" t="n">
         <v>0.6</v>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>-1</t>
+      <c r="D50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1449,9 +1753,15 @@
       <c r="C51" t="n">
         <v>0.3</v>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="D51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1469,9 +1779,15 @@
       <c r="C52" t="n">
         <v>0.3</v>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="D52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1489,9 +1805,15 @@
       <c r="C53" t="n">
         <v>0.3</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1509,9 +1831,15 @@
       <c r="C54" t="n">
         <v>0.6</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.6</t>
+      <c r="D54" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1529,9 +1857,15 @@
       <c r="C55" t="n">
         <v>0.2</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="D55" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1549,9 +1883,15 @@
       <c r="C56" t="n">
         <v>-0.3</v>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>-0.5</t>
+      <c r="D56" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1569,9 +1909,15 @@
       <c r="C57" t="n">
         <v>0.2</v>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="D57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1589,9 +1935,15 @@
       <c r="C58" t="n">
         <v>0</v>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>-1</t>
+      <c r="D58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1609,9 +1961,15 @@
       <c r="C59" t="n">
         <v>0.6</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.7</t>
+      <c r="D59" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1629,9 +1987,15 @@
       <c r="C60" t="n">
         <v>0.4</v>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="D60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1649,9 +2013,15 @@
       <c r="C61" t="n">
         <v>0.5</v>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="D61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1669,9 +2039,15 @@
       <c r="C62" t="n">
         <v>0.2</v>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>-1</t>
+      <c r="D62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1689,9 +2065,15 @@
       <c r="C63" t="n">
         <v>0.2</v>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="D63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1709,9 +2091,15 @@
       <c r="C64" t="n">
         <v>0.8</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.8</t>
+      <c r="D64" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1729,9 +2117,15 @@
       <c r="C65" t="n">
         <v>0.1</v>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="D65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1749,9 +2143,15 @@
       <c r="C66" t="n">
         <v>0.3</v>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="D66" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1769,9 +2169,15 @@
       <c r="C67" t="n">
         <v>0.8</v>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.8</t>
+      <c r="D67" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1789,9 +2195,15 @@
       <c r="C68" t="n">
         <v>0.7</v>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.8</t>
+      <c r="D68" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1809,9 +2221,15 @@
       <c r="C69" t="n">
         <v>0.7</v>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.6</t>
+      <c r="D69" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1829,9 +2247,15 @@
       <c r="C70" t="n">
         <v>-0.5</v>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>-0.5</t>
+      <c r="D70" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1849,9 +2273,15 @@
       <c r="C71" t="n">
         <v>0.1</v>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>-0.2</t>
+      <c r="D71" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1869,9 +2299,15 @@
       <c r="C72" t="n">
         <v>0.5</v>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="D72" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1889,9 +2325,15 @@
       <c r="C73" t="n">
         <v>0.8</v>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.7</t>
+      <c r="D73" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1909,9 +2351,15 @@
       <c r="C74" t="n">
         <v>0.5</v>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="D74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1929,9 +2377,15 @@
       <c r="C75" t="n">
         <v>0.3</v>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="D75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1949,9 +2403,15 @@
       <c r="C76" t="n">
         <v>0.6</v>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.8</t>
+      <c r="D76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1969,9 +2429,15 @@
       <c r="C77" t="n">
         <v>0.5</v>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.7</t>
+      <c r="D77" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -1989,9 +2455,15 @@
       <c r="C78" t="n">
         <v>0.1</v>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>-0.5</t>
+      <c r="D78" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -2009,9 +2481,15 @@
       <c r="C79" t="n">
         <v>0.2</v>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>-0.5</t>
+      <c r="D79" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>

--- a/sentiments.xlsx
+++ b/sentiments.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="2010 - 2014" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2015 - 2019" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2496,4 +2497,9547 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F340"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>custom_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>message_content_x</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>message_content_y</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>message_content_z</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>message_content_a</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>message_content</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>request-1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>request-2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>request-3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>request-4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>request-5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>request-6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>request-7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>request-8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>request-9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>request-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>request-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>request-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>request-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>request-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>request-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>request-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>request-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>request-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>request-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>request-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>request-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>request-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>request-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>request-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>request-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>request-26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>request-27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>request-28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>request-29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>request-30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>request-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>request-32</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>request-33</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>request-34</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>request-35</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>request-36</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>request-37</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>request-38</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>request-39</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>request-40</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>request-41</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>request-42</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>request-43</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>request-44</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>request-45</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>request-46</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>-0.7</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>request-47</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>request-48</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>request-49</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>request-50</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>request-51</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>request-52</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>request-53</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>request-54</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>request-55</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>request-56</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>request-57</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>request-58</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>request-59</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>request-60</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>request-61</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>request-62</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>request-63</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>request-64</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>request-65</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>request-66</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>request-67</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>request-68</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>request-69</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>request-70</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>request-71</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>request-72</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>request-73</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>request-74</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>request-75</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>request-76</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>request-77</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>request-78</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>request-79</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>request-80</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>request-81</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>request-82</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>request-83</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>request-84</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>request-85</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>request-86</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>request-87</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>request-88</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>request-89</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>request-90</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>request-91</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>request-92</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>request-93</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>request-94</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>request-95</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>request-96</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>request-97</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>request-98</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>request-99</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>request-100</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>request-101</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>request-102</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>request-103</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>request-104</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>request-105</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>request-106</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>request-107</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>request-108</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>request-109</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>request-110</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>request-111</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>request-112</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>request-113</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>request-114</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>request-115</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>request-116</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>request-117</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>request-118</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>request-119</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>request-120</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>request-121</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>request-122</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>request-123</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>request-124</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>request-125</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>request-126</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>request-127</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>request-128</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>request-129</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>request-130</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>request-131</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>request-132</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>request-133</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>request-134</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>request-135</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>request-136</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>request-137</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>request-138</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>request-139</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>request-140</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>request-141</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>request-142</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>request-143</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>request-144</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>request-145</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>request-146</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>request-147</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>request-148</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>request-149</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>request-150</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>request-151</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>request-152</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>request-153</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>request-154</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>request-155</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>request-156</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>request-157</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>request-158</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>request-159</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>request-160</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>request-161</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>request-162</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>request-163</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>request-164</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>request-165</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>request-166</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>request-167</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>request-168</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>request-169</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>request-170</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>request-171</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>request-172</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>request-173</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>request-174</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>request-175</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>request-176</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>request-177</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>request-178</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>request-179</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>request-180</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>request-181</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>request-182</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>request-183</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>request-184</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>request-185</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>request-186</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>request-187</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>request-188</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>request-189</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>request-190</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>request-191</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>request-192</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>request-193</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>request-194</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>request-195</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>request-196</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>request-197</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>request-198</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>request-199</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>request-200</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>request-201</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>request-202</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>request-203</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>request-204</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>request-205</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>request-206</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>request-207</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>request-208</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>request-209</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>request-210</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>request-211</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>request-212</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C213" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>request-213</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>request-214</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>request-215</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>request-216</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>request-217</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>request-218</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>request-219</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>request-220</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>request-221</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>request-222</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>request-223</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C224" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>request-224</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>request-225</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>request-226</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>request-227</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>request-228</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>request-229</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>request-230</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>request-231</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>request-232</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>request-233</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>request-234</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>request-235</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>request-236</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>request-237</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C238" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>request-238</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>request-239</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>request-240</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>request-241</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>request-242</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>request-243</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>request-244</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>request-245</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>request-246</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>request-247</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>request-248</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>request-249</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>request-250</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>request-251</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>request-252</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>request-253</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>request-254</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>request-255</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C256" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>request-256</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C257" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>request-257</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>request-258</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>request-259</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>request-260</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>request-261</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C262" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>request-262</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>request-263</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>request-264</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>request-265</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>request-266</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>request-267</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>request-268</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>request-269</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>request-270</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>request-271</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>request-272</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>request-273</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>request-274</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Sentiment value: 1</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>request-275</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>request-276</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>request-277</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>request-278</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>request-279</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>request-280</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>request-281</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>request-282</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>request-283</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C284" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>request-284</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>request-285</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>request-286</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>request-287</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>request-288</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>request-289</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>request-290</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>request-291</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>request-292</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>request-293</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C294" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>request-294</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>request-295</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>request-296</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>request-297</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>request-298</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>request-299</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>request-300</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>request-301</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>request-302</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>request-303</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>request-304</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>request-305</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>request-306</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C307" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>request-307</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>request-308</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C309" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>request-309</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>request-310</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>request-311</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>request-312</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>request-313</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>request-314</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>request-315</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>request-316</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>request-317</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>request-318</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>request-319</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>request-320</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>request-321</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>request-322</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>request-323</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>request-324</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>request-325</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>request-326</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>request-327</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>request-328</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C329" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>request-329</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C330" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>request-330</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>request-331</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>request-332</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>request-333</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C334" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>request-334</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>request-335</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>request-336</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>request-337</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>request-338</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>request-339</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>